--- a/planning/TASKS_GLDWWebsite.xlsx
+++ b/planning/TASKS_GLDWWebsite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Develop an alert detail page including a map of the location.</t>
+  </si>
+  <si>
+    <t>Alerts List page</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>USGS Map Page</t>
+  </si>
+  <si>
+    <t>Develop a map page highlighting all USGS Flow data</t>
+  </si>
+  <si>
+    <t>Develop a page that allows searching and selecting all existing alerts.</t>
   </si>
 </sst>
 </file>
@@ -405,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,17 +461,17 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C4" si="0">TEXT(D2,"DD-MMM-YY")</f>
-        <v>01-Aug-19</v>
+        <f t="shared" ref="C2" si="0">TEXT(D2,"DD-MMM-YY")</f>
+        <v>21-Jul-19</v>
       </c>
       <c r="D2" s="1">
-        <v>43678</v>
+        <v>43667</v>
       </c>
       <c r="E2" s="3">
         <v>20</v>
@@ -465,44 +480,78 @@
         <v>0.6</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C5" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Aug-19</v>
       </c>
       <c r="D3" s="1">
         <v>43678</v>
       </c>
       <c r="E3" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01-Aug-19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43678</v>
+      </c>
+      <c r="E4" s="3">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <v>0.1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Aug-19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43692</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
       <c r="F5" s="5"/>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
@@ -531,10 +580,16 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_GLDWWebsite.xlsx
+++ b/planning/TASKS_GLDWWebsite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Develop a page that allows searching and selecting all existing alerts.</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +467,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2" si="0">TEXT(D2,"DD-MMM-YY")</f>
@@ -477,7 +480,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -488,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C5" si="1">TEXT(D3,"DD-MMM-YY")</f>
@@ -501,7 +504,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -525,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>

--- a/planning/TASKS_GLDWWebsite.xlsx
+++ b/planning/TASKS_GLDWWebsite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>NDBC Buoy Map Page</t>
+  </si>
+  <si>
+    <t>Develop a mapping page that displays the NDBC buoy data</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +500,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C5" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C6" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Aug-19</v>
       </c>
       <c r="D3" s="1">
@@ -515,7 +521,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -528,7 +534,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -536,10 +542,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
@@ -549,18 +555,36 @@
         <v>43692</v>
       </c>
       <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Aug-19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43692</v>
+      </c>
+      <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
@@ -589,10 +613,16 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_GLDWWebsite.xlsx
+++ b/planning/TASKS_GLDWWebsite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18795" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Alerts List page</t>
   </si>
   <si>
-    <t>Scheduled</t>
-  </si>
-  <si>
     <t>USGS Map Page</t>
   </si>
   <si>
@@ -72,10 +69,19 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>NDBC Buoy Map Page</t>
-  </si>
-  <si>
-    <t>Develop a mapping page that displays the NDBC buoy data</t>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>Develop a mapping page that displays the NDBC buoy data directly in a google map</t>
+  </si>
+  <si>
+    <t>NDBC Buoy Maps - Live</t>
+  </si>
+  <si>
+    <t>Develop a mapping page that displays the NDBC buoy data using a static Google fusion document.</t>
+  </si>
+  <si>
+    <t>NDBC Buoy Map  - PreLoaded</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,10 +476,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2" si="0">TEXT(D2,"DD-MMM-YY")</f>
@@ -489,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -497,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C6" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C7" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Aug-19</v>
       </c>
       <c r="D3" s="1">
@@ -521,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -542,10 +548,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
@@ -558,39 +564,57 @@
         <v>10</v>
       </c>
       <c r="F5" s="5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15-Aug-19</v>
+        <v>15-Sep-19</v>
       </c>
       <c r="D6" s="1">
-        <v>43692</v>
+        <v>43723</v>
       </c>
       <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5">
+        <v>0.2</v>
+      </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Sep-19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43723</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
       <c r="F7" s="5"/>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
@@ -619,10 +643,16 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_GLDWWebsite.xlsx
+++ b/planning/TASKS_GLDWWebsite.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +603,10 @@
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15-Sep-19</v>
+        <v>15-Oct-19</v>
       </c>
       <c r="D7" s="1">
-        <v>43723</v>
+        <v>43753</v>
       </c>
       <c r="E7" s="3">
         <v>20</v>

--- a/planning/TASKS_GLDWWebsite.xlsx
+++ b/planning/TASKS_GLDWWebsite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>DueAsDate</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>NDBC Buoy Map  - PreLoaded</t>
+  </si>
+  <si>
+    <t>USGS State Map</t>
+  </si>
+  <si>
+    <t>Develop a USGS map that can display data for any state.</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,16 +462,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -476,10 +479,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2" si="0">TEXT(D2,"DD-MMM-YY")</f>
@@ -495,18 +498,18 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C7" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C8" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Aug-19</v>
       </c>
       <c r="D3" s="1">
@@ -519,15 +522,15 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -543,15 +546,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
@@ -567,15 +570,15 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
@@ -588,18 +591,18 @@
         <v>20</v>
       </c>
       <c r="F6" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -611,16 +614,29 @@
       <c r="E7" s="3">
         <v>20</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
       <c r="F8" s="5"/>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
@@ -649,10 +665,16 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_GLDWWebsite.xlsx
+++ b/planning/TASKS_GLDWWebsite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Develop a USGS map that can display data for any state.</t>
+  </si>
+  <si>
+    <t>Data Plotting Page</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Develop a flexible GLDW data plotting page</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,26 +632,44 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01-Feb-20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43862</v>
+      </c>
+      <c r="E8" s="3">
+        <v>75</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>20</v>
+      </c>
       <c r="F9" s="5"/>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
@@ -671,10 +698,16 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_GLDWWebsite.xlsx
+++ b/planning/TASKS_GLDWWebsite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Develop a flexible GLDW data plotting page</t>
+  </si>
+  <si>
+    <t>Text Data Queries</t>
+  </si>
+  <si>
+    <t>Support text queries of the latest station data. Text the station path to  216-600-0212</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +524,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C8" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C9" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Aug-19</v>
       </c>
       <c r="D3" s="1">
@@ -632,50 +638,68 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>01-Feb-20</v>
+        <v>10-Jan-20</v>
       </c>
       <c r="D8" s="1">
-        <v>43862</v>
+        <v>43840</v>
       </c>
       <c r="E8" s="3">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01-Feb-20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43862</v>
+      </c>
+      <c r="E9" s="3">
+        <v>75</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
       <c r="F10" s="5"/>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
@@ -704,10 +728,16 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_GLDWWebsite.xlsx
+++ b/planning/TASKS_GLDWWebsite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -39,67 +39,49 @@
     <t>DueDate</t>
   </si>
   <si>
-    <t>Alerts Widget</t>
-  </si>
-  <si>
-    <t>Alerts Detail Page</t>
-  </si>
-  <si>
-    <t>Develop a widget that displays current alerts and allows selection of an Alert for more details.</t>
-  </si>
-  <si>
-    <t>Develop an alert detail page including a map of the location.</t>
-  </si>
-  <si>
-    <t>Alerts List page</t>
-  </si>
-  <si>
-    <t>USGS Map Page</t>
-  </si>
-  <si>
-    <t>Develop a map page highlighting all USGS Flow data</t>
-  </si>
-  <si>
-    <t>Develop a page that allows searching and selecting all existing alerts.</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>Proposed</t>
   </si>
   <si>
-    <t>Develop a mapping page that displays the NDBC buoy data directly in a google map</t>
-  </si>
-  <si>
-    <t>NDBC Buoy Maps - Live</t>
-  </si>
-  <si>
-    <t>Develop a mapping page that displays the NDBC buoy data using a static Google fusion document.</t>
-  </si>
-  <si>
-    <t>NDBC Buoy Map  - PreLoaded</t>
-  </si>
-  <si>
-    <t>USGS State Map</t>
-  </si>
-  <si>
-    <t>Develop a USGS map that can display data for any state.</t>
-  </si>
-  <si>
-    <t>Data Plotting Page</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Develop a flexible GLDW data plotting page</t>
-  </si>
-  <si>
     <t>Text Data Queries</t>
   </si>
   <si>
     <t>Support text queries of the latest station data. Text the station path to  216-600-0212</t>
+  </si>
+  <si>
+    <t>Comparing River Flows Page</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Develop a page for comparing the historical river flows for any two Great Lakes stations</t>
+  </si>
+  <si>
+    <t>Develop a series of dashboard widgets for assembling plotting investigation pages.</t>
+  </si>
+  <si>
+    <t>Ploting Widgets for Dashboards</t>
+  </si>
+  <si>
+    <t>Generalized Data Plotting Page</t>
+  </si>
+  <si>
+    <t>Map Widgets for Dashboards</t>
+  </si>
+  <si>
+    <t>Enhanced Buoy Data Map</t>
+  </si>
+  <si>
+    <t>Develop generalized map support widgets with customizable pin icons and data.</t>
+  </si>
+  <si>
+    <t>Develop a flexible GLDW data plotting page supporting any GLDW data.</t>
+  </si>
+  <si>
+    <t>Develop enhanced buoy map display features including graphical wind direction and metric display.</t>
   </si>
 </sst>
 </file>
@@ -135,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -144,9 +126,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -453,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
@@ -494,17 +473,17 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2" si="0">TEXT(D2,"DD-MMM-YY")</f>
-        <v>21-Jul-19</v>
+        <v>10-Jan-20</v>
       </c>
       <c r="D2" s="1">
-        <v>43667</v>
+        <v>43840</v>
       </c>
       <c r="E2" s="3">
         <v>20</v>
@@ -513,231 +492,160 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C9" si="1">TEXT(D3,"DD-MMM-YY")</f>
-        <v>01-Aug-19</v>
+        <f t="shared" ref="C3:C6" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <v>01-May-20</v>
       </c>
       <c r="D3" s="1">
-        <v>43678</v>
-      </c>
-      <c r="E3" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E3" s="2">
         <v>20</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>01-Aug-19</v>
+        <v>15-May-20</v>
       </c>
       <c r="D4" s="1">
-        <v>43678</v>
-      </c>
-      <c r="E4" s="3">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5">
+        <v>43966</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15-Aug-19</v>
+        <v>10-Jun-20</v>
       </c>
       <c r="D5" s="1">
-        <v>43692</v>
+        <v>43992</v>
       </c>
       <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
+      <c r="F5" s="4">
+        <v>0.8</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15-Sep-19</v>
+        <v>10-Jun-20</v>
       </c>
       <c r="D6" s="1">
-        <v>43723</v>
+        <v>43992</v>
       </c>
       <c r="E6" s="3">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" ref="C7" si="2">TEXT(D7,"DD-MMM-YY")</f>
+        <v>01-Jul-20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44013</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>15-Oct-19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43753</v>
-      </c>
-      <c r="E7" s="3">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10-Jan-20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43840</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01-Feb-20</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43862</v>
-      </c>
-      <c r="E9" s="3">
-        <v>75</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
